--- a/CUDA/results/fractals_data.xlsx
+++ b/CUDA/results/fractals_data.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.lazarescu\Desktop\gold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\antonio\fractal-image-generation\CUDA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760D326-EB9B-42F5-B1C0-1C1F52A5FF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5755C3-2454-4F6A-B562-7BBECE99C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Speedup" sheetId="7" r:id="rId1"/>
-    <sheet name="Mandelbrot" sheetId="1" r:id="rId2"/>
-    <sheet name="Tricorn" sheetId="4" r:id="rId3"/>
-    <sheet name="Julia" sheetId="5" r:id="rId4"/>
-    <sheet name="Cosine" sheetId="6" r:id="rId5"/>
+    <sheet name="Big pictures" sheetId="8" r:id="rId1"/>
+    <sheet name="Speedup" sheetId="7" r:id="rId2"/>
+    <sheet name="Mandelbrot" sheetId="1" r:id="rId3"/>
+    <sheet name="Tricorn" sheetId="4" r:id="rId4"/>
+    <sheet name="Julia" sheetId="5" r:id="rId5"/>
+    <sheet name="Cosine" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="63">
   <si>
     <t>Mandelbrot</t>
   </si>
@@ -334,12 +334,42 @@
       <t xml:space="preserve"> - XGA</t>
     </r>
   </si>
+  <si>
+    <t>20000 x 16000 x 2000 iter</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-10870H | NVIDIA GeForce GTX 1650</t>
+  </si>
+  <si>
+    <t>grain size = 8x8 (Mandelbrot/Tricorn/Julia) | grain size = 16x16 (Cosine)</t>
+  </si>
+  <si>
+    <t>Cosine (new)</t>
+  </si>
+  <si>
+    <t>NVIDIA A100-SXM4-80GB</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>20000x15000 px</t>
+  </si>
+  <si>
+    <t>(interpolare la cosine)</t>
+  </si>
+  <si>
+    <t>SpeedUp Server</t>
+  </si>
+  <si>
+    <t>SpeedUp My own machine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +393,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +434,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -441,11 +492,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -458,9 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,15 +733,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -511,6 +745,77 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,11 +825,11 @@
   <colors>
     <mruColors>
       <color rgb="FF00CC00"/>
+      <color rgb="FF00CCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF99FF66"/>
-      <color rgb="FF00CCFF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF94E86A"/>
       <color rgb="FF65FF65"/>
@@ -543,6 +848,513 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SpeedUp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>My Own Machine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00CCFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00CCFF"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Big pictures'!$B$40:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tricorn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cosine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Big pictures'!$B$41:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>158.36710439210066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.048825029241961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.060682709025041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906.64089307147788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8541-4BE3-A3A6-8E36B0050D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Server</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00CC00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00CC00"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Big pictures'!$B$40:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tricorn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cosine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Big pictures'!$B$42:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75.900459705855994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.406791831194191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.905243936901751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1540.4802110940514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8541-4BE3-A3A6-8E36B0050D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1035080143"/>
+        <c:axId val="1035090703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1035080143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035090703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1035090703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035080143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -614,16 +1426,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -659,16 +1468,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -712,16 +1518,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US" b="1">
@@ -1133,7 +1936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1715,7 +2518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2297,7 +3100,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2879,7 +3682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3464,855 +4267,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DEDB-4224-AADB-022D66D6A7E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1501488400"/>
-        <c:axId val="1501487440"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="1501488400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1501487440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1501487440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>E</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ro-RO" sz="3200" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>xecution time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> [ms]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ro-RO" sz="3200" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1501488400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="4000" b="1" u="sng">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tricorn</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="4000" b="0" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="0" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>&lt;width=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>5000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="0" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>&gt; &lt;height=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>3000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="0" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>&gt; &lt;max_iterations=</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="0" u="none">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>&gt;</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200">
-                <a:solidFill>
-                  <a:srgbClr val="00CC00"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>NVIDIA GeForce GTX 1650            </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200">
-                <a:solidFill>
-                  <a:srgbClr val="00CCFF"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Intel(R) Core(TM) i7-10870H    </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d>
-          <a:contourClr>
-            <a:schemeClr val="bg1"/>
-          </a:contourClr>
-        </a:sp3d>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d>
-          <a:contourClr>
-            <a:schemeClr val="bg1"/>
-          </a:contourClr>
-        </a:sp3d>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tricorn!$E$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00FF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00FF00"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d>
-              <a:contourClr>
-                <a:srgbClr val="00FF00"/>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00CC00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00CC00"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d>
-                <a:contourClr>
-                  <a:srgbClr val="00CC00"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3C6F-4B29-BE80-2AB801CD4871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="CCFF99"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="63500"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ro-RO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tricorn!$D$35:$D$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>BlockSize
-1x1 = 1 thread</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BlockSize
-2x2 = 4 threads</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BlockSize
-4x4 = 16 threads
-</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BlockSize
-8x8 = 64 threads</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BlockSize
-16x16 = 256 threads</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BlockSize
-32x32 = 1024 threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tricorn!$E$35:$E$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>356.5324</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.25724</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.018040000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0365</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.180359999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.805680000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C6F-4B29-BE80-2AB801CD4871}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tricorn!$F$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPU+CPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00CCFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00CCFF"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d>
-              <a:contourClr>
-                <a:srgbClr val="00CCFF"/>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="66FFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="63500"/>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ro-RO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tricorn!$D$35:$D$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>BlockSize
-1x1 = 1 thread</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BlockSize
-2x2 = 4 threads</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BlockSize
-4x4 = 16 threads
-</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BlockSize
-8x8 = 64 threads</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BlockSize
-16x16 = 256 threads</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BlockSize
-32x32 = 1024 threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tricorn!$F$35:$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>779.07339999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>493.42020000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>452.00279999999992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>408.77300000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>429.72820000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>462.59059999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3C6F-4B29-BE80-2AB801CD4871}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4624,6 +4578,855 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>Tricorn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;width=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&gt; &lt;height=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&gt; &lt;max_iterations=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&gt;</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200">
+                <a:solidFill>
+                  <a:srgbClr val="00CC00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NVIDIA GeForce GTX 1650            </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200">
+                <a:solidFill>
+                  <a:srgbClr val="00CCFF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Intel(R) Core(TM) i7-10870H    </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d>
+          <a:contourClr>
+            <a:schemeClr val="bg1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d>
+          <a:contourClr>
+            <a:schemeClr val="bg1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tricorn!$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d>
+              <a:contourClr>
+                <a:srgbClr val="00FF00"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00CC00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00CC00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d>
+                <a:contourClr>
+                  <a:srgbClr val="00CC00"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3C6F-4B29-BE80-2AB801CD4871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF99"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="63500"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tricorn!$D$35:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize
+1x1 = 1 thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BlockSize
+2x2 = 4 threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlockSize
+4x4 = 16 threads
+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlockSize
+8x8 = 64 threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlockSize
+16x16 = 256 threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BlockSize
+32x32 = 1024 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tricorn!$E$35:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>356.5324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.25724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.018040000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.180359999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.805680000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C6F-4B29-BE80-2AB801CD4871}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tricorn!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU+CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00CCFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00CCFF"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d>
+              <a:contourClr>
+                <a:srgbClr val="00CCFF"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="63500"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ro-RO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tricorn!$D$35:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize
+1x1 = 1 thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BlockSize
+2x2 = 4 threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlockSize
+4x4 = 16 threads
+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlockSize
+8x8 = 64 threads</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlockSize
+16x16 = 256 threads</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BlockSize
+32x32 = 1024 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tricorn!$F$35:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>779.07339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>493.42020000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452.00279999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>408.77300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>429.72820000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>462.59059999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C6F-4B29-BE80-2AB801CD4871}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1501488400"/>
+        <c:axId val="1501487440"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1501488400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501487440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1501487440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>E</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ro-RO" sz="3200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>xecution time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ro-RO" sz="3200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ro-RO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501488400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000" b="1" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Julia</a:t>
             </a:r>
             <a:r>
@@ -5434,7 +6237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6687,8 +7490,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6711,6 +7554,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -6881,6 +7735,498 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -7181,7 +8527,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7675,7 +9021,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8169,7 +9515,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8663,7 +10009,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9165,7 +10511,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9667,7 +11013,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10169,7 +11515,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10672,6 +12018,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>613558</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9896</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AD22D7-16B3-4370-8D73-D950D8BB4FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10828,7 +12217,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10871,7 +12260,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10914,7 +12303,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10957,7 +12346,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11262,11 +12651,677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06414615-6049-4A28-97CC-1F712AA48C36}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="6" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="32">
+        <f>(B6+B7+B8+B9+B10)/5</f>
+        <v>3453.154</v>
+      </c>
+      <c r="C5" s="32">
+        <f>(C6+C7+C8+C9+C10)/5</f>
+        <v>2985.4360000000001</v>
+      </c>
+      <c r="D5" s="32">
+        <f>(D6+D7+D8+D9+D10)/5</f>
+        <v>3502.81</v>
+      </c>
+      <c r="E5" s="32">
+        <f>(E6+E7+E8+E9+E10)/5</f>
+        <v>14629.960000000001</v>
+      </c>
+      <c r="F5" s="32">
+        <f>(F6+F7+F8+F9+F10)/5</f>
+        <v>14589.680000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="30">
+        <v>3491.2</v>
+      </c>
+      <c r="C6" s="30">
+        <v>3044.57</v>
+      </c>
+      <c r="D6" s="30">
+        <v>3548.51</v>
+      </c>
+      <c r="E6" s="30">
+        <v>13971.9</v>
+      </c>
+      <c r="F6" s="30">
+        <v>13870.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3384.22</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2930.03</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3409.72</v>
+      </c>
+      <c r="E7" s="21">
+        <v>13820.2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>13874.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3460</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2978.51</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3444.89</v>
+      </c>
+      <c r="E8" s="21">
+        <v>13854.7</v>
+      </c>
+      <c r="F8" s="21">
+        <v>17411.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3428.87</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2973.98</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3446.07</v>
+      </c>
+      <c r="E9" s="21">
+        <v>17433.400000000001</v>
+      </c>
+      <c r="F9" s="21">
+        <v>13940.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="28">
+        <v>3501.48</v>
+      </c>
+      <c r="C10" s="28">
+        <v>3000.09</v>
+      </c>
+      <c r="D10" s="28">
+        <v>3664.86</v>
+      </c>
+      <c r="E10" s="28">
+        <v>14069.6</v>
+      </c>
+      <c r="F10" s="28">
+        <v>13850.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="32">
+        <f>(B12+B13+B14+B15+B16)/5</f>
+        <v>770.05220000000008</v>
+      </c>
+      <c r="C11" s="32">
+        <f>(C12+C13+C14+C15+C16)/5</f>
+        <v>419.56219999999996</v>
+      </c>
+      <c r="D11" s="32">
+        <f>(D12+D13+D14+D15+D16)/5</f>
+        <v>205.70279999999997</v>
+      </c>
+      <c r="E11" s="32">
+        <f>(E12+E13+E14+E15+E16)/5</f>
+        <v>11384.74</v>
+      </c>
+      <c r="F11" s="32">
+        <f>(F12+F13+F14+F15+F16)/5</f>
+        <v>11376.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="30">
+        <v>777.68899999999996</v>
+      </c>
+      <c r="C12" s="30">
+        <v>415.47500000000002</v>
+      </c>
+      <c r="D12" s="30">
+        <v>212.953</v>
+      </c>
+      <c r="E12" s="30">
+        <v>11391.5</v>
+      </c>
+      <c r="F12" s="30">
+        <v>11374.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="21">
+        <v>782.32299999999998</v>
+      </c>
+      <c r="C13" s="21">
+        <v>415.89299999999997</v>
+      </c>
+      <c r="D13" s="21">
+        <v>208.43199999999999</v>
+      </c>
+      <c r="E13" s="21">
+        <v>11376.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>11364.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="21">
+        <v>776.83900000000006</v>
+      </c>
+      <c r="C14" s="21">
+        <v>435.35399999999998</v>
+      </c>
+      <c r="D14" s="21">
+        <v>190.45599999999999</v>
+      </c>
+      <c r="E14" s="21">
+        <v>11375.7</v>
+      </c>
+      <c r="F14" s="21">
+        <v>11369.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="21">
+        <v>760.08500000000004</v>
+      </c>
+      <c r="C15" s="21">
+        <v>427.983</v>
+      </c>
+      <c r="D15" s="21">
+        <v>203.65199999999999</v>
+      </c>
+      <c r="E15" s="21">
+        <v>11383.4</v>
+      </c>
+      <c r="F15" s="21">
+        <v>11438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="26">
+        <v>753.32500000000005</v>
+      </c>
+      <c r="C16" s="26">
+        <v>403.10599999999999</v>
+      </c>
+      <c r="D16" s="26">
+        <v>213.02099999999999</v>
+      </c>
+      <c r="E16" s="26">
+        <v>11396.8</v>
+      </c>
+      <c r="F16" s="26">
+        <v>11333.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="32">
+        <f>(B23+B24+B25+B26+B27)/5</f>
+        <v>7205.0419999999995</v>
+      </c>
+      <c r="C22" s="32">
+        <f>(C23+C24+C25+C26+C27)/5</f>
+        <v>7119.3760000000011</v>
+      </c>
+      <c r="D22" s="32">
+        <f>(D23+D24+D25+D26+D27)/5</f>
+        <v>7728.3919999999998</v>
+      </c>
+      <c r="E22" s="32">
+        <f>(E23+E24+E25+E26+E27)/5</f>
+        <v>8610.380000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="30">
+        <v>8214.17</v>
+      </c>
+      <c r="C23" s="30">
+        <v>6967.68</v>
+      </c>
+      <c r="D23" s="30">
+        <v>8790.01</v>
+      </c>
+      <c r="E23" s="30">
+        <v>9780.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21">
+        <v>8144.5</v>
+      </c>
+      <c r="C24" s="21">
+        <v>6787.17</v>
+      </c>
+      <c r="D24" s="21">
+        <v>8546.98</v>
+      </c>
+      <c r="E24" s="21">
+        <v>8737.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="21">
+        <v>7505.62</v>
+      </c>
+      <c r="C25" s="21">
+        <v>7858.83</v>
+      </c>
+      <c r="D25" s="21">
+        <v>6517.95</v>
+      </c>
+      <c r="E25" s="21">
+        <v>8586.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="21">
+        <v>6542.79</v>
+      </c>
+      <c r="C26" s="21">
+        <v>6847.88</v>
+      </c>
+      <c r="D26" s="21">
+        <v>8509.35</v>
+      </c>
+      <c r="E26" s="21">
+        <v>8385.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="28">
+        <v>5618.13</v>
+      </c>
+      <c r="C27" s="26">
+        <v>7135.32</v>
+      </c>
+      <c r="D27" s="21">
+        <v>6277.67</v>
+      </c>
+      <c r="E27" s="28">
+        <v>7563.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="32">
+        <f>(B29+B30+B31+B32+B33)/5</f>
+        <v>147.0976</v>
+      </c>
+      <c r="C28" s="32">
+        <f>(C29+C30+C31+C32+C33)/5</f>
+        <v>78.388440000000017</v>
+      </c>
+      <c r="D28" s="32">
+        <f>(D29+D30+D31+D32+D33)/5</f>
+        <v>34.512499999999996</v>
+      </c>
+      <c r="E28" s="32">
+        <f>(E29+E30+E31+E32+E33)/5</f>
+        <v>1896.6259999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="30">
+        <v>149.745</v>
+      </c>
+      <c r="C29" s="30">
+        <v>78.296099999999996</v>
+      </c>
+      <c r="D29" s="30">
+        <v>34.549799999999998</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1904.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="21">
+        <v>146.35400000000001</v>
+      </c>
+      <c r="C30" s="21">
+        <v>78.660600000000002</v>
+      </c>
+      <c r="D30" s="21">
+        <v>34.572299999999998</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1899.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="21">
+        <v>146.28100000000001</v>
+      </c>
+      <c r="C31" s="21">
+        <v>78.284800000000004</v>
+      </c>
+      <c r="D31" s="21">
+        <v>34.443300000000001</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1903.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="21">
+        <v>147.24199999999999</v>
+      </c>
+      <c r="C32" s="21">
+        <v>78.282799999999995</v>
+      </c>
+      <c r="D32" s="21">
+        <v>34.338799999999999</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1873.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="26">
+        <v>145.86600000000001</v>
+      </c>
+      <c r="C33" s="26">
+        <v>78.417900000000003</v>
+      </c>
+      <c r="D33" s="26">
+        <v>34.658299999999997</v>
+      </c>
+      <c r="E33" s="26">
+        <v>1901.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="34">
+        <v>546866</v>
+      </c>
+      <c r="C37" s="34">
+        <v>152403</v>
+      </c>
+      <c r="D37" s="34">
+        <v>84280</v>
+      </c>
+      <c r="E37" s="34">
+        <v>13264120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="47">
+        <f>(B37/B5)</f>
+        <v>158.36710439210066</v>
+      </c>
+      <c r="C41" s="47">
+        <f t="shared" ref="C41:E41" si="0">(C37/C5)</f>
+        <v>51.048825029241961</v>
+      </c>
+      <c r="D41" s="47">
+        <f t="shared" si="0"/>
+        <v>24.060682709025041</v>
+      </c>
+      <c r="E41" s="47">
+        <f t="shared" si="0"/>
+        <v>906.64089307147788</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="47">
+        <f>(B37/B22)</f>
+        <v>75.900459705855994</v>
+      </c>
+      <c r="C42" s="47">
+        <f t="shared" ref="C42:D42" si="1">(C37/C22)</f>
+        <v>21.406791831194191</v>
+      </c>
+      <c r="D42" s="47">
+        <f t="shared" si="1"/>
+        <v>10.905243936901751</v>
+      </c>
+      <c r="E42" s="47">
+        <f>(E37/E22)</f>
+        <v>1540.4802110940514</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEB7CBF-7D5F-4FB5-A01A-9181A805BB9E}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="47" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11276,60 +13331,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11337,43 +13392,43 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>235</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>74</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>75</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>5745</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="19">
         <v>262</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="17">
         <v>289</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>297</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="17">
         <v>305</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="20">
         <f>B3/F3</f>
         <v>0.89694656488549618</v>
       </c>
-      <c r="K3" s="24">
-        <f>D3/G3</f>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:K11" si="0">D3/G3</f>
         <v>0.25951557093425603</v>
       </c>
-      <c r="L3" s="24">
-        <f>C3/H3</f>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L11" si="1">C3/H3</f>
         <v>0.24915824915824916</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="20">
         <f>E3/I3</f>
         <v>18.83606557377049</v>
       </c>
@@ -11382,44 +13437,44 @@
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>363</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>117</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>116</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>9040</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <v>309</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>301</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <v>307</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>320</v>
       </c>
-      <c r="J4" s="24">
-        <f t="shared" ref="J4:J11" si="0">B4/F4</f>
+      <c r="J4" s="20">
+        <f t="shared" ref="J4:J11" si="2">B4/F4</f>
         <v>1.174757281553398</v>
       </c>
-      <c r="K4" s="24">
-        <f>D4/G4</f>
+      <c r="K4" s="20">
+        <f t="shared" si="0"/>
         <v>0.38538205980066448</v>
       </c>
-      <c r="L4" s="24">
-        <f>C4/H4</f>
+      <c r="L4" s="20">
+        <f t="shared" si="1"/>
         <v>0.38110749185667753</v>
       </c>
-      <c r="M4" s="24">
-        <f t="shared" ref="M4:M11" si="1">E4/I4</f>
+      <c r="M4" s="20">
+        <f t="shared" ref="M4:M11" si="3">E4/I4</f>
         <v>28.25</v>
       </c>
     </row>
@@ -11427,44 +13482,44 @@
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>599</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>184</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>187</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>15244</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>314</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <v>315</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="17">
         <v>314</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="17">
         <v>333</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="20">
+        <f t="shared" si="2"/>
+        <v>1.9076433121019107</v>
+      </c>
+      <c r="K5" s="20">
         <f t="shared" si="0"/>
-        <v>1.9076433121019107</v>
-      </c>
-      <c r="K5" s="24">
-        <f>D5/G5</f>
         <v>0.59365079365079365</v>
       </c>
-      <c r="L5" s="24">
-        <f>C5/H5</f>
+      <c r="L5" s="20">
+        <f t="shared" si="1"/>
         <v>0.5859872611464968</v>
       </c>
-      <c r="M5" s="24">
-        <f t="shared" si="1"/>
+      <c r="M5" s="20">
+        <f t="shared" si="3"/>
         <v>45.777777777777779</v>
       </c>
     </row>
@@ -11472,44 +13527,44 @@
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>1635</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>530</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>517</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>41331</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="19">
         <v>330</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <v>326</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <v>329</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>390</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="20">
+        <f t="shared" si="2"/>
+        <v>4.9545454545454541</v>
+      </c>
+      <c r="K6" s="20">
         <f t="shared" si="0"/>
-        <v>4.9545454545454541</v>
-      </c>
-      <c r="K6" s="24">
-        <f>D6/G6</f>
         <v>1.5858895705521472</v>
       </c>
-      <c r="L6" s="24">
-        <f>C6/H6</f>
+      <c r="L6" s="20">
+        <f t="shared" si="1"/>
         <v>1.6109422492401215</v>
       </c>
-      <c r="M6" s="24">
-        <f t="shared" si="1"/>
+      <c r="M6" s="20">
+        <f t="shared" si="3"/>
         <v>105.97692307692307</v>
       </c>
     </row>
@@ -11517,44 +13572,44 @@
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>2937</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>861</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>877</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>78269</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <v>343</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>335</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>337</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <v>412</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="20">
+        <f t="shared" si="2"/>
+        <v>8.5626822157434397</v>
+      </c>
+      <c r="K7" s="20">
         <f t="shared" si="0"/>
-        <v>8.5626822157434397</v>
-      </c>
-      <c r="K7" s="24">
-        <f>D7/G7</f>
         <v>2.6179104477611941</v>
       </c>
-      <c r="L7" s="24">
-        <f>C7/H7</f>
+      <c r="L7" s="20">
+        <f t="shared" si="1"/>
         <v>2.5548961424332344</v>
       </c>
-      <c r="M7" s="24">
-        <f t="shared" si="1"/>
+      <c r="M7" s="20">
+        <f t="shared" si="3"/>
         <v>189.97330097087379</v>
       </c>
     </row>
@@ -11562,44 +13617,44 @@
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>6503</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>1945</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>2029</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>167800</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <v>409</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>396</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <v>413</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <v>590</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="20">
+        <f t="shared" si="2"/>
+        <v>15.899755501222494</v>
+      </c>
+      <c r="K8" s="20">
         <f t="shared" si="0"/>
-        <v>15.899755501222494</v>
-      </c>
-      <c r="K8" s="24">
-        <f>D8/G8</f>
         <v>5.1237373737373737</v>
       </c>
-      <c r="L8" s="24">
-        <f>C8/H8</f>
+      <c r="L8" s="20">
+        <f t="shared" si="1"/>
         <v>4.7094430992736074</v>
       </c>
-      <c r="M8" s="24">
-        <f t="shared" si="1"/>
+      <c r="M8" s="20">
+        <f t="shared" si="3"/>
         <v>284.40677966101697</v>
       </c>
     </row>
@@ -11607,44 +13662,44 @@
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>27882</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>7654</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>7738</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>670492</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>605</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>589</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>617</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <v>1144</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="20">
+        <f t="shared" si="2"/>
+        <v>46.085950413223138</v>
+      </c>
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
-        <v>46.085950413223138</v>
-      </c>
-      <c r="K9" s="24">
-        <f>D9/G9</f>
         <v>13.137521222410866</v>
       </c>
-      <c r="L9" s="24">
-        <f>C9/H9</f>
+      <c r="L9" s="20">
+        <f t="shared" si="1"/>
         <v>12.405186385737439</v>
       </c>
-      <c r="M9" s="24">
-        <f t="shared" si="1"/>
+      <c r="M9" s="20">
+        <f t="shared" si="3"/>
         <v>586.09440559440554</v>
       </c>
     </row>
@@ -11652,44 +13707,44 @@
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>48053</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>13954</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>16875</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>1184168</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="19">
         <v>830</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>760</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <v>884</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <v>1841</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="20">
+        <f t="shared" si="2"/>
+        <v>57.895180722891567</v>
+      </c>
+      <c r="K10" s="20">
         <f t="shared" si="0"/>
-        <v>57.895180722891567</v>
-      </c>
-      <c r="K10" s="24">
-        <f>D10/G10</f>
         <v>22.203947368421051</v>
       </c>
-      <c r="L10" s="24">
-        <f>C10/H10</f>
+      <c r="L10" s="20">
+        <f t="shared" si="1"/>
         <v>15.785067873303168</v>
       </c>
-      <c r="M10" s="24">
-        <f t="shared" si="1"/>
+      <c r="M10" s="20">
+        <f t="shared" si="3"/>
         <v>643.219989136339</v>
       </c>
     </row>
@@ -11697,45 +13752,62 @@
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>110950</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>33714</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>35004</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>2691069</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <v>1515</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <v>1398</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="17">
         <v>1580</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <v>3835</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="20">
+        <f t="shared" si="2"/>
+        <v>73.234323432343231</v>
+      </c>
+      <c r="K11" s="20">
         <f t="shared" si="0"/>
-        <v>73.234323432343231</v>
-      </c>
-      <c r="K11" s="24">
-        <f>D11/G11</f>
         <v>25.038626609442058</v>
       </c>
-      <c r="L11" s="24">
-        <f>C11/H11</f>
+      <c r="L11" s="20">
+        <f t="shared" si="1"/>
         <v>21.337974683544303</v>
       </c>
-      <c r="M11" s="24">
-        <f t="shared" si="1"/>
+      <c r="M11" s="20">
+        <f t="shared" si="3"/>
         <v>701.71290743155146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="9">
+        <v>546866</v>
+      </c>
+      <c r="C12" s="9">
+        <v>152403</v>
+      </c>
+      <c r="D12" s="9">
+        <v>84280</v>
+      </c>
+      <c r="E12" s="35">
+        <v>13264120</v>
       </c>
     </row>
   </sheetData>
@@ -11749,11 +13821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="C35" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="29" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
@@ -11764,13 +13836,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -11787,19 +13859,19 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11811,19 +13883,19 @@
         <f>(D5+E5+F5+G5+H5)/5</f>
         <v>659.35</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>691.00900000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>651.37</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>651.55899999999997</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>651.45399999999995</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>651.35799999999995</v>
       </c>
     </row>
@@ -11835,19 +13907,19 @@
         <f>(D6+E6+F6+G6+H6)/5</f>
         <v>1027.722</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1075.28</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1020.62</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1019.36</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1008.82</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1014.53</v>
       </c>
     </row>
@@ -11866,19 +13938,19 @@
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11890,19 +13962,19 @@
         <f>(D10+E10+F10+G10+H10)/5</f>
         <v>171.68180000000001</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>195.488</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>165.74</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>165.68899999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>165.74700000000001</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>165.745</v>
       </c>
     </row>
@@ -11914,19 +13986,19 @@
         <f>(D11+E11+F11+G11+H11)/5</f>
         <v>587.66739999999993</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>614.17899999999997</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>578.45299999999997</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>581.48400000000004</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>577.33399999999995</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>586.88699999999994</v>
       </c>
     </row>
@@ -11945,19 +14017,19 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11969,19 +14041,19 @@
         <f>(D15+E15+F15+G15+H15)/5</f>
         <v>55.286760000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>55.484999999999999</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>55.262999999999998</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>55.288800000000002</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>55.233699999999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>55.1633</v>
       </c>
     </row>
@@ -11993,19 +14065,19 @@
         <f>(D16+E16+F16+G16+H16)/5</f>
         <v>467.13440000000008</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>489.99099999999999</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>448.65100000000001</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>458.83199999999999</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>467.34300000000002</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>470.85500000000002</v>
       </c>
     </row>
@@ -12024,19 +14096,19 @@
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12048,19 +14120,19 @@
         <f>(D20+E20+F20+G20+H20)/5</f>
         <v>23.924680000000002</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>23.982500000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>24.004799999999999</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>23.954899999999999</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>23.8736</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>23.807600000000001</v>
       </c>
     </row>
@@ -12072,19 +14144,19 @@
         <f>(D21+E21+F21+G21+H21)/5</f>
         <v>447.05820000000006</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>464.97699999999998</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>448.35399999999998</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>439.75799999999998</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>441.23</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>440.97199999999998</v>
       </c>
     </row>
@@ -12103,19 +14175,19 @@
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12127,19 +14199,19 @@
         <f>(D25+E25+F25+G25+H25)/5</f>
         <v>24.028520000000004</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>24.0534</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>24.0152</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>24.031300000000002</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>23.9971</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>24.0456</v>
       </c>
     </row>
@@ -12151,19 +14223,19 @@
         <f>(D26+E26+F26+G26+H26)/5</f>
         <v>457.83980000000003</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>467.10599999999999</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>438.54700000000003</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>485.58300000000003</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>445.28300000000002</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>452.68</v>
       </c>
     </row>
@@ -12182,19 +14254,19 @@
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12206,19 +14278,19 @@
         <f>(D30+E30+F30+G30+H30)/5</f>
         <v>28.318760000000005</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>28.366900000000001</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>28.357399999999998</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>28.2959</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>28.241199999999999</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>28.3324</v>
       </c>
     </row>
@@ -12230,740 +14302,127 @@
         <f>(D31+E31+F31+G31+H31)/5</f>
         <v>448.38779999999997</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>441.71499999999997</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>435.91500000000002</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>444.77699999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>460.79300000000001</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>458.73899999999998</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f>(D5+E5+F5+G5+H5)/5</f>
         <v>659.35</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>(D6+E6+F6+G6+H6)/5</f>
         <v>1027.722</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>(D10+E10+F10+G10+H10)/5</f>
         <v>171.68180000000001</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>(D11+E11+F11+G11+H11)/5</f>
         <v>587.66739999999993</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>(D15+E15+F15+G15+H15)/5</f>
         <v>55.286760000000001</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>(D16+E16+F16+G16+H16)/5</f>
         <v>467.13440000000008</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f>(D20+E20+F20+G20+H20)/5</f>
         <v>23.924680000000002</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f>(D21+E21+F21+G21+H21)/5</f>
         <v>447.05820000000006</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>(D25+E25+F25+G25+H25)/5</f>
         <v>24.028520000000004</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f>(D26+E26+F26+G26+H26)/5</f>
         <v>457.83980000000003</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>(D30+E30+F30+G30+H30)/5</f>
         <v>28.318760000000005</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f>(D31+E31+F31+G31+H31)/5</f>
         <v>448.38779999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF93C5F-9FE2-40BC-9799-419E07B4B16D}">
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="35" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.77734375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6">
-        <f>(D5+E5+F5+G5+H5)/5</f>
-        <v>356.5324</v>
-      </c>
-      <c r="D5" s="10">
-        <v>391.33800000000002</v>
-      </c>
-      <c r="E5" s="10">
-        <v>347.74</v>
-      </c>
-      <c r="F5" s="10">
-        <v>347.91399999999999</v>
-      </c>
-      <c r="G5" s="10">
-        <v>347.76900000000001</v>
-      </c>
-      <c r="H5" s="10">
-        <v>347.90100000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6">
-        <f>(D6+E6+F6+G6+H6)/5</f>
-        <v>779.07339999999999</v>
-      </c>
-      <c r="D6" s="10">
-        <v>852.61199999999997</v>
-      </c>
-      <c r="E6" s="10">
-        <v>796.70600000000002</v>
-      </c>
-      <c r="F6" s="10">
-        <v>751.90700000000004</v>
-      </c>
-      <c r="G6" s="10">
-        <v>736.91499999999996</v>
-      </c>
-      <c r="H6" s="10">
-        <v>757.22699999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6">
-        <f>(D10+E10+F10+G10+H10)/5</f>
-        <v>100.25724</v>
-      </c>
-      <c r="D10" s="10">
-        <v>116.60899999999999</v>
-      </c>
-      <c r="E10" s="10">
-        <v>89.398499999999999</v>
-      </c>
-      <c r="F10" s="10">
-        <v>116.545</v>
-      </c>
-      <c r="G10" s="10">
-        <v>89.3733</v>
-      </c>
-      <c r="H10" s="10">
-        <v>89.360399999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6">
-        <f>(D11+E11+F11+G11+H11)/5</f>
-        <v>493.42020000000002</v>
-      </c>
-      <c r="D11" s="10">
-        <v>564.34</v>
-      </c>
-      <c r="E11" s="10">
-        <v>457.60500000000002</v>
-      </c>
-      <c r="F11" s="10">
-        <v>532.44000000000005</v>
-      </c>
-      <c r="G11" s="10">
-        <v>450.68299999999999</v>
-      </c>
-      <c r="H11" s="10">
-        <v>462.03300000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6">
-        <f>(D15+E15+F15+G15+H15)/5</f>
-        <v>30.018040000000003</v>
-      </c>
-      <c r="D15" s="10">
-        <v>30.105899999999998</v>
-      </c>
-      <c r="E15" s="10">
-        <v>30.019300000000001</v>
-      </c>
-      <c r="F15" s="10">
-        <v>29.907399999999999</v>
-      </c>
-      <c r="G15" s="10">
-        <v>30.0943</v>
-      </c>
-      <c r="H15" s="10">
-        <v>29.9633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6">
-        <f>(D16+E16+F16+G16+H16)/5</f>
-        <v>452.00279999999992</v>
-      </c>
-      <c r="D16" s="10">
-        <v>423.90499999999997</v>
-      </c>
-      <c r="E16" s="10">
-        <v>419.69400000000002</v>
-      </c>
-      <c r="F16" s="10">
-        <v>478.81700000000001</v>
-      </c>
-      <c r="G16" s="10">
-        <v>474.30399999999997</v>
-      </c>
-      <c r="H16" s="10">
-        <v>463.29399999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
-        <f>(D20+E20+F20+G20+H20)/5</f>
-        <v>13.0365</v>
-      </c>
-      <c r="D20" s="10">
-        <v>13.043200000000001</v>
-      </c>
-      <c r="E20" s="10">
-        <v>13.1288</v>
-      </c>
-      <c r="F20" s="10">
-        <v>13.0433</v>
-      </c>
-      <c r="G20" s="10">
-        <v>12.9848</v>
-      </c>
-      <c r="H20" s="10">
-        <v>12.9824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6">
-        <f>(D21+E21+F21+G21+H21)/5</f>
-        <v>408.77300000000002</v>
-      </c>
-      <c r="D21" s="10">
-        <v>409.02600000000001</v>
-      </c>
-      <c r="E21" s="10">
-        <v>417.738</v>
-      </c>
-      <c r="F21" s="10">
-        <v>388.48399999999998</v>
-      </c>
-      <c r="G21" s="10">
-        <v>442.73399999999998</v>
-      </c>
-      <c r="H21" s="10">
-        <v>385.88299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6">
-        <f>(D25+E25+F25+G25+H25)/5</f>
-        <v>13.180359999999999</v>
-      </c>
-      <c r="D25" s="10">
-        <v>13.213100000000001</v>
-      </c>
-      <c r="E25" s="10">
-        <v>13.180300000000001</v>
-      </c>
-      <c r="F25" s="10">
-        <v>13.167299999999999</v>
-      </c>
-      <c r="G25" s="10">
-        <v>13.095499999999999</v>
-      </c>
-      <c r="H25" s="10">
-        <v>13.2456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6">
-        <f>(D26+E26+F26+G26+H26)/5</f>
-        <v>429.72820000000002</v>
-      </c>
-      <c r="D26" s="10">
-        <v>428.64400000000001</v>
-      </c>
-      <c r="E26" s="10">
-        <v>425.50200000000001</v>
-      </c>
-      <c r="F26" s="10">
-        <v>436.29399999999998</v>
-      </c>
-      <c r="G26" s="10">
-        <v>428.065</v>
-      </c>
-      <c r="H26" s="10">
-        <v>430.13600000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="6">
-        <f>(D30+E30+F30+G30+H30)/5</f>
-        <v>15.805680000000001</v>
-      </c>
-      <c r="D30" s="10">
-        <v>15.8515</v>
-      </c>
-      <c r="E30" s="10">
-        <v>15.7608</v>
-      </c>
-      <c r="F30" s="10">
-        <v>15.815799999999999</v>
-      </c>
-      <c r="G30" s="10">
-        <v>15.810499999999999</v>
-      </c>
-      <c r="H30" s="10">
-        <v>15.7898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="6">
-        <f>(D31+E31+F31+G31+H31)/5</f>
-        <v>462.59059999999999</v>
-      </c>
-      <c r="D31" s="10">
-        <v>462.97800000000001</v>
-      </c>
-      <c r="E31" s="10">
-        <v>432.315</v>
-      </c>
-      <c r="F31" s="10">
-        <v>467.649</v>
-      </c>
-      <c r="G31" s="10">
-        <v>427.56400000000002</v>
-      </c>
-      <c r="H31" s="10">
-        <v>522.447</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="11">
-        <f>(D5+E5+F5+G5+H5)/5</f>
-        <v>356.5324</v>
-      </c>
-      <c r="F35" s="11">
-        <f>(D6+E6+F6+G6+H6)/5</f>
-        <v>779.07339999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="11">
-        <f>(D10+E10+F10+G10+H10)/5</f>
-        <v>100.25724</v>
-      </c>
-      <c r="F36" s="11">
-        <f>(D11+E11+F11+G11+H11)/5</f>
-        <v>493.42020000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="11">
-        <f>(D15+E15+F15+G15+H15)/5</f>
-        <v>30.018040000000003</v>
-      </c>
-      <c r="F37" s="11">
-        <f>(D16+E16+F16+G16+H16)/5</f>
-        <v>452.00279999999992</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="11">
-        <f>(D20+E20+F20+G20+H20)/5</f>
-        <v>13.0365</v>
-      </c>
-      <c r="F38" s="11">
-        <f>(D21+E21+F21+G21+H21)/5</f>
-        <v>408.77300000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="11">
-        <f>(D25+E25+F25+G25+H25)/5</f>
-        <v>13.180359999999999</v>
-      </c>
-      <c r="F39" s="11">
-        <f>(D26+E26+F26+G26+H26)/5</f>
-        <v>429.72820000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="11">
-        <f>(D30+E30+F30+G30+H30)/5</f>
-        <v>15.805680000000001</v>
-      </c>
-      <c r="F40" s="11">
-        <f>(D31+E31+F31+G31+H31)/5</f>
-        <v>462.59059999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12977,10 +14436,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053BE339-17E2-44AB-800B-7294853A3B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF93C5F-9FE2-40BC-9799-419E07B4B16D}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="37" workbookViewId="0">
+    <sheetView zoomScale="30" zoomScaleNormal="51" workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
@@ -12990,13 +14449,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -13013,19 +14472,19 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13035,22 +14494,22 @@
       </c>
       <c r="B5" s="6">
         <f>(D5+E5+F5+G5+H5)/5</f>
-        <v>136.18379999999999</v>
-      </c>
-      <c r="D5" s="10">
-        <v>159.32</v>
-      </c>
-      <c r="E5" s="10">
-        <v>130.303</v>
-      </c>
-      <c r="F5" s="10">
-        <v>130.298</v>
-      </c>
-      <c r="G5" s="10">
-        <v>130.22900000000001</v>
-      </c>
-      <c r="H5" s="10">
-        <v>130.76900000000001</v>
+        <v>356.5324</v>
+      </c>
+      <c r="D5" s="9">
+        <v>391.33800000000002</v>
+      </c>
+      <c r="E5" s="9">
+        <v>347.74</v>
+      </c>
+      <c r="F5" s="9">
+        <v>347.91399999999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>347.76900000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>347.90100000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13059,22 +14518,22 @@
       </c>
       <c r="B6" s="6">
         <f>(D6+E6+F6+G6+H6)/5</f>
-        <v>586.53420000000006</v>
-      </c>
-      <c r="D6" s="10">
-        <v>635.11099999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>565.28899999999999</v>
-      </c>
-      <c r="F6" s="10">
-        <v>595.04899999999998</v>
-      </c>
-      <c r="G6" s="10">
-        <v>565.14099999999996</v>
-      </c>
-      <c r="H6" s="10">
-        <v>572.08100000000002</v>
+        <v>779.07339999999999</v>
+      </c>
+      <c r="D6" s="9">
+        <v>852.61199999999997</v>
+      </c>
+      <c r="E6" s="9">
+        <v>796.70600000000002</v>
+      </c>
+      <c r="F6" s="9">
+        <v>751.90700000000004</v>
+      </c>
+      <c r="G6" s="9">
+        <v>736.91499999999996</v>
+      </c>
+      <c r="H6" s="9">
+        <v>757.22699999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13092,19 +14551,19 @@
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13114,22 +14573,22 @@
       </c>
       <c r="B10" s="6">
         <f>(D10+E10+F10+G10+H10)/5</f>
-        <v>60.922919999999998</v>
-      </c>
-      <c r="D10" s="10">
-        <v>61.124600000000001</v>
-      </c>
-      <c r="E10" s="10">
-        <v>61.020699999999998</v>
-      </c>
-      <c r="F10" s="10">
-        <v>60.817999999999998</v>
-      </c>
-      <c r="G10" s="10">
-        <v>60.9863</v>
-      </c>
-      <c r="H10" s="10">
-        <v>60.664999999999999</v>
+        <v>100.25724</v>
+      </c>
+      <c r="D10" s="9">
+        <v>116.60899999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>89.398499999999999</v>
+      </c>
+      <c r="F10" s="9">
+        <v>116.545</v>
+      </c>
+      <c r="G10" s="9">
+        <v>89.3733</v>
+      </c>
+      <c r="H10" s="9">
+        <v>89.360399999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13138,22 +14597,22 @@
       </c>
       <c r="B11" s="6">
         <f>(D11+E11+F11+G11+H11)/5</f>
-        <v>488.77479999999997</v>
-      </c>
-      <c r="D11" s="10">
-        <v>531.50599999999997</v>
-      </c>
-      <c r="E11" s="10">
-        <v>497.12</v>
-      </c>
-      <c r="F11" s="10">
-        <v>475.80700000000002</v>
-      </c>
-      <c r="G11" s="10">
-        <v>456.721</v>
-      </c>
-      <c r="H11" s="10">
-        <v>482.72</v>
+        <v>493.42020000000002</v>
+      </c>
+      <c r="D11" s="9">
+        <v>564.34</v>
+      </c>
+      <c r="E11" s="9">
+        <v>457.60500000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <v>532.44000000000005</v>
+      </c>
+      <c r="G11" s="9">
+        <v>450.68299999999999</v>
+      </c>
+      <c r="H11" s="9">
+        <v>462.03300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13171,19 +14630,19 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13193,22 +14652,22 @@
       </c>
       <c r="B15" s="6">
         <f>(D15+E15+F15+G15+H15)/5</f>
-        <v>21.884420000000002</v>
-      </c>
-      <c r="D15" s="10">
-        <v>21.837499999999999</v>
-      </c>
-      <c r="E15" s="10">
-        <v>21.900700000000001</v>
-      </c>
-      <c r="F15" s="10">
-        <v>21.911000000000001</v>
-      </c>
-      <c r="G15" s="10">
-        <v>21.7835</v>
-      </c>
-      <c r="H15" s="10">
-        <v>21.9894</v>
+        <v>30.018040000000003</v>
+      </c>
+      <c r="D15" s="9">
+        <v>30.105899999999998</v>
+      </c>
+      <c r="E15" s="9">
+        <v>30.019300000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>29.907399999999999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>30.0943</v>
+      </c>
+      <c r="H15" s="9">
+        <v>29.9633</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13217,22 +14676,22 @@
       </c>
       <c r="B16" s="6">
         <f>(D16+E16+F16+G16+H16)/5</f>
-        <v>470.81080000000003</v>
-      </c>
-      <c r="D16" s="10">
-        <v>492.84399999999999</v>
-      </c>
-      <c r="E16" s="10">
-        <v>495.32799999999997</v>
-      </c>
-      <c r="F16" s="10">
-        <v>465.64400000000001</v>
-      </c>
-      <c r="G16" s="10">
-        <v>425.46600000000001</v>
-      </c>
-      <c r="H16" s="10">
-        <v>474.77199999999999</v>
+        <v>452.00279999999992</v>
+      </c>
+      <c r="D16" s="9">
+        <v>423.90499999999997</v>
+      </c>
+      <c r="E16" s="9">
+        <v>419.69400000000002</v>
+      </c>
+      <c r="F16" s="9">
+        <v>478.81700000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>474.30399999999997</v>
+      </c>
+      <c r="H16" s="9">
+        <v>463.29399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -13250,19 +14709,19 @@
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13272,22 +14731,22 @@
       </c>
       <c r="B20" s="6">
         <f>(D20+E20+F20+G20+H20)/5</f>
-        <v>10.639320000000001</v>
-      </c>
-      <c r="D20" s="10">
-        <v>10.616400000000001</v>
-      </c>
-      <c r="E20" s="10">
-        <v>10.6782</v>
-      </c>
-      <c r="F20" s="10">
-        <v>10.659700000000001</v>
-      </c>
-      <c r="G20" s="10">
-        <v>10.610799999999999</v>
-      </c>
-      <c r="H20" s="10">
-        <v>10.631500000000001</v>
+        <v>13.0365</v>
+      </c>
+      <c r="D20" s="9">
+        <v>13.043200000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>13.1288</v>
+      </c>
+      <c r="F20" s="9">
+        <v>13.0433</v>
+      </c>
+      <c r="G20" s="9">
+        <v>12.9848</v>
+      </c>
+      <c r="H20" s="9">
+        <v>12.9824</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -13296,22 +14755,22 @@
       </c>
       <c r="B21" s="6">
         <f>(D21+E21+F21+G21+H21)/5</f>
-        <v>467.90440000000001</v>
-      </c>
-      <c r="D21" s="10">
-        <v>472.90800000000002</v>
-      </c>
-      <c r="E21" s="10">
-        <v>455.024</v>
-      </c>
-      <c r="F21" s="10">
-        <v>468.60899999999998</v>
-      </c>
-      <c r="G21" s="10">
-        <v>458.55799999999999</v>
-      </c>
-      <c r="H21" s="10">
-        <v>484.423</v>
+        <v>408.77300000000002</v>
+      </c>
+      <c r="D21" s="9">
+        <v>409.02600000000001</v>
+      </c>
+      <c r="E21" s="9">
+        <v>417.738</v>
+      </c>
+      <c r="F21" s="9">
+        <v>388.48399999999998</v>
+      </c>
+      <c r="G21" s="9">
+        <v>442.73399999999998</v>
+      </c>
+      <c r="H21" s="9">
+        <v>385.88299999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -13329,19 +14788,19 @@
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13351,22 +14810,22 @@
       </c>
       <c r="B25" s="6">
         <f>(D25+E25+F25+G25+H25)/5</f>
-        <v>11.012699999999999</v>
-      </c>
-      <c r="D25" s="10">
-        <v>11.001899999999999</v>
-      </c>
-      <c r="E25" s="10">
-        <v>11.0044</v>
-      </c>
-      <c r="F25" s="10">
-        <v>11.032400000000001</v>
-      </c>
-      <c r="G25" s="10">
-        <v>11.0946</v>
-      </c>
-      <c r="H25" s="10">
-        <v>10.930199999999999</v>
+        <v>13.180359999999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>13.213100000000001</v>
+      </c>
+      <c r="E25" s="9">
+        <v>13.180300000000001</v>
+      </c>
+      <c r="F25" s="9">
+        <v>13.167299999999999</v>
+      </c>
+      <c r="G25" s="9">
+        <v>13.095499999999999</v>
+      </c>
+      <c r="H25" s="9">
+        <v>13.2456</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -13375,22 +14834,22 @@
       </c>
       <c r="B26" s="6">
         <f>(D26+E26+F26+G26+H26)/5</f>
-        <v>469.98680000000002</v>
-      </c>
-      <c r="D26" s="10">
-        <v>477.29</v>
-      </c>
-      <c r="E26" s="10">
-        <v>461.43799999999999</v>
-      </c>
-      <c r="F26" s="10">
-        <v>474.51</v>
-      </c>
-      <c r="G26" s="10">
-        <v>461.70600000000002</v>
-      </c>
-      <c r="H26" s="10">
-        <v>474.99</v>
+        <v>429.72820000000002</v>
+      </c>
+      <c r="D26" s="9">
+        <v>428.64400000000001</v>
+      </c>
+      <c r="E26" s="9">
+        <v>425.50200000000001</v>
+      </c>
+      <c r="F26" s="9">
+        <v>436.29399999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <v>428.065</v>
+      </c>
+      <c r="H26" s="9">
+        <v>430.13600000000002</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -13408,19 +14867,19 @@
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13430,22 +14889,22 @@
       </c>
       <c r="B30" s="6">
         <f>(D30+E30+F30+G30+H30)/5</f>
-        <v>14.337639999999999</v>
-      </c>
-      <c r="D30" s="10">
-        <v>14.1746</v>
-      </c>
-      <c r="E30" s="10">
-        <v>14.415900000000001</v>
-      </c>
-      <c r="F30" s="10">
-        <v>14.3217</v>
-      </c>
-      <c r="G30" s="10">
-        <v>14.3847</v>
-      </c>
-      <c r="H30" s="10">
-        <v>14.391299999999999</v>
+        <v>15.805680000000001</v>
+      </c>
+      <c r="D30" s="9">
+        <v>15.8515</v>
+      </c>
+      <c r="E30" s="9">
+        <v>15.7608</v>
+      </c>
+      <c r="F30" s="9">
+        <v>15.815799999999999</v>
+      </c>
+      <c r="G30" s="9">
+        <v>15.810499999999999</v>
+      </c>
+      <c r="H30" s="9">
+        <v>15.7898</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -13454,129 +14913,129 @@
       </c>
       <c r="B31" s="6">
         <f>(D31+E31+F31+G31+H31)/5</f>
-        <v>474.06880000000001</v>
-      </c>
-      <c r="D31" s="10">
-        <v>522.38699999999994</v>
-      </c>
-      <c r="E31" s="10">
-        <v>468.85599999999999</v>
-      </c>
-      <c r="F31" s="10">
-        <v>463.16500000000002</v>
-      </c>
-      <c r="G31" s="10">
-        <v>456.71100000000001</v>
-      </c>
-      <c r="H31" s="10">
-        <v>459.22500000000002</v>
+        <v>462.59059999999999</v>
+      </c>
+      <c r="D31" s="9">
+        <v>462.97800000000001</v>
+      </c>
+      <c r="E31" s="9">
+        <v>432.315</v>
+      </c>
+      <c r="F31" s="9">
+        <v>467.649</v>
+      </c>
+      <c r="G31" s="9">
+        <v>427.56400000000002</v>
+      </c>
+      <c r="H31" s="9">
+        <v>522.447</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f>(D5+E5+F5+G5+H5)/5</f>
-        <v>136.18379999999999</v>
-      </c>
-      <c r="F35" s="11">
+        <v>356.5324</v>
+      </c>
+      <c r="F35" s="10">
         <f>(D6+E6+F6+G6+H6)/5</f>
-        <v>586.53420000000006</v>
+        <v>779.07339999999999</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>(D10+E10+F10+G10+H10)/5</f>
-        <v>60.922919999999998</v>
-      </c>
-      <c r="F36" s="11">
+        <v>100.25724</v>
+      </c>
+      <c r="F36" s="10">
         <f>(D11+E11+F11+G11+H11)/5</f>
-        <v>488.77479999999997</v>
+        <v>493.42020000000002</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>(D15+E15+F15+G15+H15)/5</f>
-        <v>21.884420000000002</v>
-      </c>
-      <c r="F37" s="11">
+        <v>30.018040000000003</v>
+      </c>
+      <c r="F37" s="10">
         <f>(D16+E16+F16+G16+H16)/5</f>
-        <v>470.81080000000003</v>
+        <v>452.00279999999992</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f>(D20+E20+F20+G20+H20)/5</f>
-        <v>10.639320000000001</v>
-      </c>
-      <c r="F38" s="11">
+        <v>13.0365</v>
+      </c>
+      <c r="F38" s="10">
         <f>(D21+E21+F21+G21+H21)/5</f>
-        <v>467.90440000000001</v>
+        <v>408.77300000000002</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>(D25+E25+F25+G25+H25)/5</f>
-        <v>11.012699999999999</v>
-      </c>
-      <c r="F39" s="11">
+        <v>13.180359999999999</v>
+      </c>
+      <c r="F39" s="10">
         <f>(D26+E26+F26+G26+H26)/5</f>
-        <v>469.98680000000002</v>
+        <v>429.72820000000002</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>(D30+E30+F30+G30+H30)/5</f>
-        <v>14.337639999999999</v>
-      </c>
-      <c r="F40" s="11">
+        <v>15.805680000000001</v>
+      </c>
+      <c r="F40" s="10">
         <f>(D31+E31+F31+G31+H31)/5</f>
-        <v>474.06880000000001</v>
+        <v>462.59059999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13590,10 +15049,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA4E8C0-B541-4F18-85A0-AA9322182C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053BE339-17E2-44AB-800B-7294853A3B67}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="37" workbookViewId="0">
+    <sheetView zoomScale="30" workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
@@ -13603,13 +15062,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -13626,19 +15085,19 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13648,22 +15107,22 @@
       </c>
       <c r="B5" s="6">
         <f>(D5+E5+F5+G5+H5)/5</f>
-        <v>10433.34</v>
-      </c>
-      <c r="D5" s="10">
-        <v>10416.4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10442.9</v>
-      </c>
-      <c r="F5" s="10">
-        <v>10418.200000000001</v>
-      </c>
-      <c r="G5" s="10">
-        <v>10436.200000000001</v>
-      </c>
-      <c r="H5" s="10">
-        <v>10453</v>
+        <v>136.18379999999999</v>
+      </c>
+      <c r="D5" s="9">
+        <v>159.32</v>
+      </c>
+      <c r="E5" s="9">
+        <v>130.303</v>
+      </c>
+      <c r="F5" s="9">
+        <v>130.298</v>
+      </c>
+      <c r="G5" s="9">
+        <v>130.22900000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>130.76900000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13672,22 +15131,22 @@
       </c>
       <c r="B6" s="6">
         <f>(D6+E6+F6+G6+H6)/5</f>
-        <v>10600.688</v>
-      </c>
-      <c r="D6" s="10">
-        <v>9973.44</v>
-      </c>
-      <c r="E6" s="10">
-        <v>10035.299999999999</v>
-      </c>
-      <c r="F6" s="10">
-        <v>12917.2</v>
-      </c>
-      <c r="G6" s="10">
-        <v>10000.6</v>
-      </c>
-      <c r="H6" s="10">
-        <v>10076.9</v>
+        <v>586.53420000000006</v>
+      </c>
+      <c r="D6" s="9">
+        <v>635.11099999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>565.28899999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>595.04899999999998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>565.14099999999996</v>
+      </c>
+      <c r="H6" s="9">
+        <v>572.08100000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13705,19 +15164,19 @@
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13727,22 +15186,22 @@
       </c>
       <c r="B10" s="6">
         <f>(D10+E10+F10+G10+H10)/5</f>
-        <v>2637.3360000000002</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2683.1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2625.41</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2625.29</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2625.51</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2627.37</v>
+        <v>60.922919999999998</v>
+      </c>
+      <c r="D10" s="9">
+        <v>61.124600000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>61.020699999999998</v>
+      </c>
+      <c r="F10" s="9">
+        <v>60.817999999999998</v>
+      </c>
+      <c r="G10" s="9">
+        <v>60.9863</v>
+      </c>
+      <c r="H10" s="9">
+        <v>60.664999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13751,22 +15210,22 @@
       </c>
       <c r="B11" s="6">
         <f>(D11+E11+F11+G11+H11)/5</f>
-        <v>2855.502</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2907.99</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2834.93</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2854.6</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2869.06</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2810.93</v>
+        <v>488.77479999999997</v>
+      </c>
+      <c r="D11" s="9">
+        <v>531.50599999999997</v>
+      </c>
+      <c r="E11" s="9">
+        <v>497.12</v>
+      </c>
+      <c r="F11" s="9">
+        <v>475.80700000000002</v>
+      </c>
+      <c r="G11" s="9">
+        <v>456.721</v>
+      </c>
+      <c r="H11" s="9">
+        <v>482.72</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13784,19 +15243,19 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13806,22 +15265,22 @@
       </c>
       <c r="B15" s="6">
         <f>(D15+E15+F15+G15+H15)/5</f>
-        <v>691.54620000000011</v>
-      </c>
-      <c r="D15" s="10">
-        <v>725.08799999999997</v>
-      </c>
-      <c r="E15" s="10">
-        <v>670.38400000000001</v>
-      </c>
-      <c r="F15" s="10">
-        <v>727.85500000000002</v>
-      </c>
-      <c r="G15" s="10">
-        <v>667.06799999999998</v>
-      </c>
-      <c r="H15" s="10">
-        <v>667.33600000000001</v>
+        <v>21.884420000000002</v>
+      </c>
+      <c r="D15" s="9">
+        <v>21.837499999999999</v>
+      </c>
+      <c r="E15" s="9">
+        <v>21.900700000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>21.911000000000001</v>
+      </c>
+      <c r="G15" s="9">
+        <v>21.7835</v>
+      </c>
+      <c r="H15" s="9">
+        <v>21.9894</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13830,22 +15289,22 @@
       </c>
       <c r="B16" s="6">
         <f>(D16+E16+F16+G16+H16)/5</f>
-        <v>1049.3440000000001</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1121.3499999999999</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1033.3599999999999</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1060.47</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1020.62</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1010.92</v>
+        <v>470.81080000000003</v>
+      </c>
+      <c r="D16" s="9">
+        <v>492.84399999999999</v>
+      </c>
+      <c r="E16" s="9">
+        <v>495.32799999999997</v>
+      </c>
+      <c r="F16" s="9">
+        <v>465.64400000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>425.46600000000001</v>
+      </c>
+      <c r="H16" s="9">
+        <v>474.77199999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -13863,19 +15322,19 @@
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13885,22 +15344,22 @@
       </c>
       <c r="B20" s="6">
         <f>(D20+E20+F20+G20+H20)/5</f>
-        <v>317.52640000000002</v>
-      </c>
-      <c r="D20" s="10">
-        <v>365.178</v>
-      </c>
-      <c r="E20" s="10">
-        <v>305.58699999999999</v>
-      </c>
-      <c r="F20" s="10">
-        <v>305.57799999999997</v>
-      </c>
-      <c r="G20" s="10">
-        <v>305.572</v>
-      </c>
-      <c r="H20" s="10">
-        <v>305.71699999999998</v>
+        <v>10.639320000000001</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10.616400000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>10.6782</v>
+      </c>
+      <c r="F20" s="9">
+        <v>10.659700000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>10.610799999999999</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10.631500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -13909,22 +15368,22 @@
       </c>
       <c r="B21" s="6">
         <f>(D21+E21+F21+G21+H21)/5</f>
-        <v>740.22619999999995</v>
-      </c>
-      <c r="D21" s="10">
-        <v>833.08399999999995</v>
-      </c>
-      <c r="E21" s="10">
-        <v>718.49800000000005</v>
-      </c>
-      <c r="F21" s="10">
-        <v>712.59900000000005</v>
-      </c>
-      <c r="G21" s="10">
-        <v>708.49099999999999</v>
-      </c>
-      <c r="H21" s="10">
-        <v>728.45899999999995</v>
+        <v>467.90440000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>472.90800000000002</v>
+      </c>
+      <c r="E21" s="9">
+        <v>455.024</v>
+      </c>
+      <c r="F21" s="9">
+        <v>468.60899999999998</v>
+      </c>
+      <c r="G21" s="9">
+        <v>458.55799999999999</v>
+      </c>
+      <c r="H21" s="9">
+        <v>484.423</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -13942,19 +15401,19 @@
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -13964,22 +15423,22 @@
       </c>
       <c r="B25" s="6">
         <f>(D25+E25+F25+G25+H25)/5</f>
-        <v>312.37</v>
-      </c>
-      <c r="D25" s="10">
-        <v>337.572</v>
-      </c>
-      <c r="E25" s="10">
-        <v>306.51499999999999</v>
-      </c>
-      <c r="F25" s="10">
-        <v>305.93099999999998</v>
-      </c>
-      <c r="G25" s="10">
-        <v>305.96699999999998</v>
-      </c>
-      <c r="H25" s="10">
-        <v>305.86500000000001</v>
+        <v>11.012699999999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>11.001899999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>11.0044</v>
+      </c>
+      <c r="F25" s="9">
+        <v>11.032400000000001</v>
+      </c>
+      <c r="G25" s="9">
+        <v>11.0946</v>
+      </c>
+      <c r="H25" s="9">
+        <v>10.930199999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -13988,22 +15447,22 @@
       </c>
       <c r="B26" s="6">
         <f>(D26+E26+F26+G26+H26)/5</f>
-        <v>738.00080000000003</v>
-      </c>
-      <c r="D26" s="10">
-        <v>759.52499999999998</v>
-      </c>
-      <c r="E26" s="10">
-        <v>719.32</v>
-      </c>
-      <c r="F26" s="10">
-        <v>745.29600000000005</v>
-      </c>
-      <c r="G26" s="10">
-        <v>720.28899999999999</v>
-      </c>
-      <c r="H26" s="10">
-        <v>745.57399999999996</v>
+        <v>469.98680000000002</v>
+      </c>
+      <c r="D26" s="9">
+        <v>477.29</v>
+      </c>
+      <c r="E26" s="9">
+        <v>461.43799999999999</v>
+      </c>
+      <c r="F26" s="9">
+        <v>474.51</v>
+      </c>
+      <c r="G26" s="9">
+        <v>461.70600000000002</v>
+      </c>
+      <c r="H26" s="9">
+        <v>474.99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -14021,19 +15480,19 @@
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14043,22 +15502,22 @@
       </c>
       <c r="B30" s="6">
         <f>(D30+E30+F30+G30+H30)/5</f>
-        <v>320.97239999999999</v>
-      </c>
-      <c r="D30" s="10">
-        <v>359.87200000000001</v>
-      </c>
-      <c r="E30" s="10">
-        <v>311.83499999999998</v>
-      </c>
-      <c r="F30" s="10">
-        <v>311.70400000000001</v>
-      </c>
-      <c r="G30" s="10">
-        <v>310.76100000000002</v>
-      </c>
-      <c r="H30" s="10">
-        <v>310.69</v>
+        <v>14.337639999999999</v>
+      </c>
+      <c r="D30" s="9">
+        <v>14.1746</v>
+      </c>
+      <c r="E30" s="9">
+        <v>14.415900000000001</v>
+      </c>
+      <c r="F30" s="9">
+        <v>14.3217</v>
+      </c>
+      <c r="G30" s="9">
+        <v>14.3847</v>
+      </c>
+      <c r="H30" s="9">
+        <v>14.391299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -14067,127 +15526,740 @@
       </c>
       <c r="B31" s="6">
         <f>(D31+E31+F31+G31+H31)/5</f>
-        <v>738.99059999999986</v>
-      </c>
-      <c r="D31" s="10">
-        <v>818.75099999999998</v>
-      </c>
-      <c r="E31" s="10">
-        <v>717.88499999999999</v>
-      </c>
-      <c r="F31" s="10">
-        <v>721.38499999999999</v>
-      </c>
-      <c r="G31" s="10">
-        <v>710.32799999999997</v>
-      </c>
-      <c r="H31" s="10">
-        <v>726.60400000000004</v>
+        <v>474.06880000000001</v>
+      </c>
+      <c r="D31" s="9">
+        <v>522.38699999999994</v>
+      </c>
+      <c r="E31" s="9">
+        <v>468.85599999999999</v>
+      </c>
+      <c r="F31" s="9">
+        <v>463.16500000000002</v>
+      </c>
+      <c r="G31" s="9">
+        <v>456.71100000000001</v>
+      </c>
+      <c r="H31" s="9">
+        <v>459.22500000000002</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
+        <f>(D5+E5+F5+G5+H5)/5</f>
+        <v>136.18379999999999</v>
+      </c>
+      <c r="F35" s="10">
+        <f>(D6+E6+F6+G6+H6)/5</f>
+        <v>586.53420000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="10">
+        <f>(D10+E10+F10+G10+H10)/5</f>
+        <v>60.922919999999998</v>
+      </c>
+      <c r="F36" s="10">
+        <f>(D11+E11+F11+G11+H11)/5</f>
+        <v>488.77479999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="10">
+        <f>(D15+E15+F15+G15+H15)/5</f>
+        <v>21.884420000000002</v>
+      </c>
+      <c r="F37" s="10">
+        <f>(D16+E16+F16+G16+H16)/5</f>
+        <v>470.81080000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="10">
+        <f>(D20+E20+F20+G20+H20)/5</f>
+        <v>10.639320000000001</v>
+      </c>
+      <c r="F38" s="10">
+        <f>(D21+E21+F21+G21+H21)/5</f>
+        <v>467.90440000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="10">
+        <f>(D25+E25+F25+G25+H25)/5</f>
+        <v>11.012699999999999</v>
+      </c>
+      <c r="F39" s="10">
+        <f>(D26+E26+F26+G26+H26)/5</f>
+        <v>469.98680000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="10">
+        <f>(D30+E30+F30+G30+H30)/5</f>
+        <v>14.337639999999999</v>
+      </c>
+      <c r="F40" s="10">
+        <f>(D31+E31+F31+G31+H31)/5</f>
+        <v>474.06880000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA4E8C0-B541-4F18-85A0-AA9322182C25}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView zoomScale="28" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
         <f>(D5+E5+F5+G5+H5)/5</f>
         <v>10433.34</v>
       </c>
-      <c r="F35" s="11">
+      <c r="D5" s="9">
+        <v>10416.4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>10442.9</v>
+      </c>
+      <c r="F5" s="9">
+        <v>10418.200000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10436.200000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
         <f>(D6+E6+F6+G6+H6)/5</f>
         <v>10600.688</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="D6" s="9">
+        <v>9973.44</v>
+      </c>
+      <c r="E6" s="9">
+        <v>10035.299999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12917.2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10000.6</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10076.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6">
         <f>(D10+E10+F10+G10+H10)/5</f>
         <v>2637.3360000000002</v>
       </c>
-      <c r="F36" s="11">
+      <c r="D10" s="9">
+        <v>2683.1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2625.41</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2625.29</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2625.51</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2627.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
         <f>(D11+E11+F11+G11+H11)/5</f>
         <v>2855.502</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="D11" s="9">
+        <v>2907.99</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2834.93</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2854.6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2869.06</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2810.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
         <f>(D15+E15+F15+G15+H15)/5</f>
         <v>691.54620000000011</v>
       </c>
-      <c r="F37" s="11">
+      <c r="D15" s="9">
+        <v>725.08799999999997</v>
+      </c>
+      <c r="E15" s="9">
+        <v>670.38400000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>727.85500000000002</v>
+      </c>
+      <c r="G15" s="9">
+        <v>667.06799999999998</v>
+      </c>
+      <c r="H15" s="9">
+        <v>667.33600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
         <f>(D16+E16+F16+G16+H16)/5</f>
         <v>1049.3440000000001</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="D16" s="9">
+        <v>1121.3499999999999</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1033.3599999999999</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1060.47</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1020.62</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1010.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
         <f>(D20+E20+F20+G20+H20)/5</f>
         <v>317.52640000000002</v>
       </c>
-      <c r="F38" s="11">
+      <c r="D20" s="9">
+        <v>365.178</v>
+      </c>
+      <c r="E20" s="9">
+        <v>305.58699999999999</v>
+      </c>
+      <c r="F20" s="9">
+        <v>305.57799999999997</v>
+      </c>
+      <c r="G20" s="9">
+        <v>305.572</v>
+      </c>
+      <c r="H20" s="9">
+        <v>305.71699999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
         <f>(D21+E21+F21+G21+H21)/5</f>
         <v>740.22619999999995</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="D21" s="9">
+        <v>833.08399999999995</v>
+      </c>
+      <c r="E21" s="9">
+        <v>718.49800000000005</v>
+      </c>
+      <c r="F21" s="9">
+        <v>712.59900000000005</v>
+      </c>
+      <c r="G21" s="9">
+        <v>708.49099999999999</v>
+      </c>
+      <c r="H21" s="9">
+        <v>728.45899999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6">
         <f>(D25+E25+F25+G25+H25)/5</f>
         <v>312.37</v>
       </c>
-      <c r="F39" s="11">
+      <c r="D25" s="9">
+        <v>337.572</v>
+      </c>
+      <c r="E25" s="9">
+        <v>306.51499999999999</v>
+      </c>
+      <c r="F25" s="9">
+        <v>305.93099999999998</v>
+      </c>
+      <c r="G25" s="9">
+        <v>305.96699999999998</v>
+      </c>
+      <c r="H25" s="9">
+        <v>305.86500000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6">
         <f>(D26+E26+F26+G26+H26)/5</f>
         <v>738.00080000000003</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="D26" s="9">
+        <v>759.52499999999998</v>
+      </c>
+      <c r="E26" s="9">
+        <v>719.32</v>
+      </c>
+      <c r="F26" s="9">
+        <v>745.29600000000005</v>
+      </c>
+      <c r="G26" s="9">
+        <v>720.28899999999999</v>
+      </c>
+      <c r="H26" s="9">
+        <v>745.57399999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6">
         <f>(D30+E30+F30+G30+H30)/5</f>
         <v>320.97239999999999</v>
       </c>
-      <c r="F40" s="11">
+      <c r="D30" s="9">
+        <v>359.87200000000001</v>
+      </c>
+      <c r="E30" s="9">
+        <v>311.83499999999998</v>
+      </c>
+      <c r="F30" s="9">
+        <v>311.70400000000001</v>
+      </c>
+      <c r="G30" s="9">
+        <v>310.76100000000002</v>
+      </c>
+      <c r="H30" s="9">
+        <v>310.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6">
+        <f>(D31+E31+F31+G31+H31)/5</f>
+        <v>738.99059999999986</v>
+      </c>
+      <c r="D31" s="9">
+        <v>818.75099999999998</v>
+      </c>
+      <c r="E31" s="9">
+        <v>717.88499999999999</v>
+      </c>
+      <c r="F31" s="9">
+        <v>721.38499999999999</v>
+      </c>
+      <c r="G31" s="9">
+        <v>710.32799999999997</v>
+      </c>
+      <c r="H31" s="9">
+        <v>726.60400000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="10">
+        <f>(D5+E5+F5+G5+H5)/5</f>
+        <v>10433.34</v>
+      </c>
+      <c r="F35" s="10">
+        <f>(D6+E6+F6+G6+H6)/5</f>
+        <v>10600.688</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="10">
+        <f>(D10+E10+F10+G10+H10)/5</f>
+        <v>2637.3360000000002</v>
+      </c>
+      <c r="F36" s="10">
+        <f>(D11+E11+F11+G11+H11)/5</f>
+        <v>2855.502</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="10">
+        <f>(D15+E15+F15+G15+H15)/5</f>
+        <v>691.54620000000011</v>
+      </c>
+      <c r="F37" s="10">
+        <f>(D16+E16+F16+G16+H16)/5</f>
+        <v>1049.3440000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="10">
+        <f>(D20+E20+F20+G20+H20)/5</f>
+        <v>317.52640000000002</v>
+      </c>
+      <c r="F38" s="10">
+        <f>(D21+E21+F21+G21+H21)/5</f>
+        <v>740.22619999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="10">
+        <f>(D25+E25+F25+G25+H25)/5</f>
+        <v>312.37</v>
+      </c>
+      <c r="F39" s="10">
+        <f>(D26+E26+F26+G26+H26)/5</f>
+        <v>738.00080000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="10">
+        <f>(D30+E30+F30+G30+H30)/5</f>
+        <v>320.97239999999999</v>
+      </c>
+      <c r="F40" s="10">
         <f>(D31+E31+F31+G31+H31)/5</f>
         <v>738.99059999999986</v>
       </c>
